--- a/idis/expdata/90021.xlsx
+++ b/idis/expdata/90021.xlsx
@@ -1416,7 +1416,7 @@
         <v>166</v>
       </c>
       <c r="M2">
-        <v>5.481075291367393e-06</v>
+        <v>4.40652698253965e-06</v>
       </c>
       <c r="N2">
         <v>1.630030666476295e-06</v>
@@ -1913,7 +1913,7 @@
         <v>166</v>
       </c>
       <c r="M3">
-        <v>1.402288908837234e-06</v>
+        <v>2.411383713836581e-06</v>
       </c>
       <c r="N3">
         <v>1.639081980269868e-06</v>
@@ -2410,7 +2410,7 @@
         <v>166</v>
       </c>
       <c r="M4">
-        <v>2.228840227981032e-06</v>
+        <v>3.596047681133899e-06</v>
       </c>
       <c r="N4">
         <v>3.989808833660654e-06</v>
@@ -2907,7 +2907,7 @@
         <v>166</v>
       </c>
       <c r="M5">
-        <v>8.117705015440639e-07</v>
+        <v>1.353400649652728e-06</v>
       </c>
       <c r="N5">
         <v>1.647787240476453e-06</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="M6">
-        <v>8.615756430598148e-07</v>
+        <v>1.938551746912237e-06</v>
       </c>
       <c r="N6">
         <v>4.011922599286724e-06</v>
@@ -3901,7 +3901,7 @@
         <v>166</v>
       </c>
       <c r="M7">
-        <v>4.761465083960171e-07</v>
+        <v>7.700007663029184e-07</v>
       </c>
       <c r="N7">
         <v>1.655975757907441e-06</v>
@@ -4398,7 +4398,7 @@
         <v>166</v>
       </c>
       <c r="M8">
-        <v>4.953476808334825e-07</v>
+        <v>1.087479861620024e-06</v>
       </c>
       <c r="N8">
         <v>4.036243177205972e-06</v>
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="M9">
-        <v>8.563546665565829e-07</v>
+        <v>1.679155704177109e-06</v>
       </c>
       <c r="N9">
         <v>9.939929977975807e-06</v>
@@ -5392,7 +5392,7 @@
         <v>166</v>
       </c>
       <c r="M10">
-        <v>2.805739254733375e-07</v>
+        <v>4.414797807982972e-07</v>
       </c>
       <c r="N10">
         <v>1.663772988817106e-06</v>
@@ -5889,7 +5889,7 @@
         <v>166</v>
       </c>
       <c r="M11">
-        <v>2.90097724415653e-07</v>
+        <v>6.236026399761963e-07</v>
       </c>
       <c r="N11">
         <v>4.061226048275114e-06</v>
@@ -6386,7 +6386,7 @@
         <v>166</v>
       </c>
       <c r="M12">
-        <v>4.39164714129761e-07</v>
+        <v>9.343949447271722e-07</v>
       </c>
       <c r="N12">
         <v>1.000646543379584e-05</v>
@@ -6883,7 +6883,7 @@
         <v>166</v>
       </c>
       <c r="M13">
-        <v>9.091787576793006e-07</v>
+        <v>1.49659098520215e-06</v>
       </c>
       <c r="N13">
         <v>2.522599134564352e-05</v>
@@ -7380,7 +7380,7 @@
         <v>166</v>
       </c>
       <c r="M14">
-        <v>1.65353399140852e-07</v>
+        <v>2.543961862435953e-07</v>
       </c>
       <c r="N14">
         <v>1.671545262126699e-06</v>
@@ -7877,7 +7877,7 @@
         <v>166</v>
       </c>
       <c r="M15">
-        <v>1.712205113577502e-07</v>
+        <v>3.6177567021747e-07</v>
       </c>
       <c r="N15">
         <v>4.086201499724809e-06</v>
@@ -8374,7 +8374,7 @@
         <v>166</v>
       </c>
       <c r="M16">
-        <v>2.561124584823248e-07</v>
+        <v>5.363868810744402e-07</v>
       </c>
       <c r="N16">
         <v>1.007446628490264e-05</v>
@@ -8871,7 +8871,7 @@
         <v>166</v>
       </c>
       <c r="M17">
-        <v>4.125140687261556e-07</v>
+        <v>8.22750836129777e-07</v>
       </c>
       <c r="N17">
         <v>2.534457712664527e-05</v>
@@ -9368,7 +9368,7 @@
         <v>166</v>
       </c>
       <c r="M18">
-        <v>9.722786654724616e-08</v>
+        <v>1.468675128258581e-07</v>
       </c>
       <c r="N18">
         <v>1.679046881389834e-06</v>
@@ -9865,7 +9865,7 @@
         <v>166</v>
       </c>
       <c r="M19">
-        <v>1.012675689854721e-07</v>
+        <v>2.108609526605865e-07</v>
       </c>
       <c r="N19">
         <v>4.108668371585343e-06</v>
@@ -10362,7 +10362,7 @@
         <v>166</v>
       </c>
       <c r="M20">
-        <v>1.513456244840533e-07</v>
+        <v>3.128713029471674e-07</v>
       </c>
       <c r="N20">
         <v>1.013558211766435e-05</v>
@@ -10859,7 +10859,7 @@
         <v>166</v>
       </c>
       <c r="M21">
-        <v>2.348688747003863e-07</v>
+        <v>4.73776141126359e-07</v>
       </c>
       <c r="N21">
         <v>2.537114515381107e-05</v>
@@ -11356,7 +11356,7 @@
         <v>166</v>
       </c>
       <c r="M22">
-        <v>4.309070933539966e-07</v>
+        <v>7.600630636325186e-07</v>
       </c>
       <c r="N22">
         <v>6.34055919475676e-05</v>
@@ -11853,7 +11853,7 @@
         <v>166</v>
       </c>
       <c r="M23">
-        <v>5.684787645803831e-08</v>
+        <v>8.434408369355709e-08</v>
       </c>
       <c r="N23">
         <v>1.680892219725338e-06</v>
@@ -12350,7 +12350,7 @@
         <v>166</v>
       </c>
       <c r="M24">
-        <v>5.968742883026367e-08</v>
+        <v>1.227806034633582e-07</v>
       </c>
       <c r="N24">
         <v>4.114897076881075e-06</v>
@@ -12847,7 +12847,7 @@
         <v>166</v>
       </c>
       <c r="M25">
-        <v>8.977002490980428e-08</v>
+        <v>1.839018702791109e-07</v>
       </c>
       <c r="N25">
         <v>1.015498783461807e-05</v>
@@ -13344,7 +13344,7 @@
         <v>166</v>
       </c>
       <c r="M26">
-        <v>1.386659101889923e-07</v>
+        <v>2.799727717368209e-07</v>
       </c>
       <c r="N26">
         <v>2.527052639444784e-05</v>
@@ -13841,7 +13841,7 @@
         <v>166</v>
       </c>
       <c r="M27">
-        <v>2.236269141200342e-07</v>
+        <v>4.366788073348528e-07</v>
       </c>
       <c r="N27">
         <v>6.312890569404344e-05</v>
@@ -14338,7 +14338,7 @@
         <v>166</v>
       </c>
       <c r="M28">
-        <v>3.28492216178845e-08</v>
+        <v>4.800527350143088e-08</v>
       </c>
       <c r="N28">
         <v>1.655776812924742e-06</v>
@@ -14835,7 +14835,7 @@
         <v>166</v>
       </c>
       <c r="M29">
-        <v>3.486079150001263e-08</v>
+        <v>7.160490431761253e-08</v>
       </c>
       <c r="N29">
         <v>4.057665743995026e-06</v>
@@ -15332,7 +15332,7 @@
         <v>166</v>
       </c>
       <c r="M30">
-        <v>5.303787018465944e-08</v>
+        <v>1.092260929611804e-07</v>
       </c>
       <c r="N30">
         <v>1.001938735785119e-05</v>
@@ -15829,7 +15829,7 @@
         <v>166</v>
       </c>
       <c r="M31">
-        <v>8.233465502595087e-08</v>
+        <v>1.688861643637931e-07</v>
       </c>
       <c r="N31">
         <v>2.481969452217936e-05</v>
@@ -16326,7 +16326,7 @@
         <v>166</v>
       </c>
       <c r="M32">
-        <v>1.311233177566999e-07</v>
+        <v>2.621907774198322e-07</v>
       </c>
       <c r="N32">
         <v>6.188156538291103e-05</v>
@@ -16823,7 +16823,7 @@
         <v>166</v>
       </c>
       <c r="M33">
-        <v>2.239316940615607e-07</v>
+        <v>4.178949014405454e-07</v>
       </c>
       <c r="N33">
         <v>0.0001520617200636945</v>
@@ -17320,7 +17320,7 @@
         <v>166</v>
       </c>
       <c r="M34">
-        <v>2.092220747034145e-08</v>
+        <v>2.787932477277668e-08</v>
       </c>
       <c r="N34">
         <v>1.570654699514045e-06</v>
@@ -17817,7 +17817,7 @@
         <v>166</v>
       </c>
       <c r="M35">
-        <v>2.008785011262101e-08</v>
+        <v>4.299950688998868e-08</v>
       </c>
       <c r="N35">
         <v>3.86082240401939e-06</v>
@@ -18314,7 +18314,7 @@
         <v>166</v>
       </c>
       <c r="M36">
-        <v>3.106985612191884e-08</v>
+        <v>6.713859290416121e-08</v>
       </c>
       <c r="N36">
         <v>9.546748503944113e-06</v>
@@ -18811,7 +18811,7 @@
         <v>166</v>
       </c>
       <c r="M37">
-        <v>4.878164207789319e-08</v>
+        <v>1.057082679169145e-07</v>
       </c>
       <c r="N37">
         <v>2.361643245880476e-05</v>
@@ -19308,7 +19308,7 @@
         <v>166</v>
       </c>
       <c r="M38">
-        <v>7.773995201080718e-08</v>
+        <v>1.65349632022298e-07</v>
       </c>
       <c r="N38">
         <v>5.876013078820719e-05</v>
@@ -19805,7 +19805,7 @@
         <v>166</v>
       </c>
       <c r="M39">
-        <v>1.279112136007572e-07</v>
+        <v>2.602260440005454e-07</v>
       </c>
       <c r="N39">
         <v>0.000144634830567716</v>
@@ -20302,7 +20302,7 @@
         <v>166</v>
       </c>
       <c r="M40">
-        <v>2.522306013274804e-07</v>
+        <v>4.054046624485894e-07</v>
       </c>
       <c r="N40">
         <v>0.0003448563559530373</v>
@@ -20799,7 +20799,7 @@
         <v>166</v>
       </c>
       <c r="M41">
-        <v>1.575996216688862e-08</v>
+        <v>2.765357457438617e-08</v>
       </c>
       <c r="N41">
         <v>3.528910722100163e-06</v>
@@ -21296,7 +21296,7 @@
         <v>166</v>
       </c>
       <c r="M42">
-        <v>1.830618874897458e-08</v>
+        <v>4.40517469092071e-08</v>
       </c>
       <c r="N42">
         <v>8.747917282189094e-06</v>
@@ -21793,7 +21793,7 @@
         <v>166</v>
       </c>
       <c r="M43">
-        <v>2.91787570140346e-08</v>
+        <v>7.043654589122096e-08</v>
       </c>
       <c r="N43">
         <v>2.167569060577366e-05</v>
@@ -22290,7 +22290,7 @@
         <v>166</v>
       </c>
       <c r="M44">
-        <v>4.688062788770166e-08</v>
+        <v>1.114198421590195e-07</v>
       </c>
       <c r="N44">
         <v>5.390855751088571e-05</v>
@@ -22787,7 +22787,7 @@
         <v>166</v>
       </c>
       <c r="M45">
-        <v>7.669593736850337e-08</v>
+        <v>1.753695424853035e-07</v>
       </c>
       <c r="N45">
         <v>0.0001330223776404276</v>
@@ -23284,7 +23284,7 @@
         <v>166</v>
       </c>
       <c r="M46">
-        <v>1.311982400961215e-07</v>
+        <v>2.696919670426743e-07</v>
       </c>
       <c r="N46">
         <v>0.00032078352351038</v>
@@ -23781,7 +23781,7 @@
         <v>166</v>
       </c>
       <c r="M47">
-        <v>1.535768210251076e-08</v>
+        <v>3.191484271298722e-08</v>
       </c>
       <c r="N47">
         <v>7.91225122580508e-06</v>
@@ -24278,7 +24278,7 @@
         <v>166</v>
       </c>
       <c r="M48">
-        <v>1.870795344210586e-08</v>
+        <v>5.195209587555533e-08</v>
       </c>
       <c r="N48">
         <v>1.966685816871769e-05</v>
@@ -24775,7 +24775,7 @@
         <v>166</v>
       </c>
       <c r="M49">
-        <v>3.056759775000505e-08</v>
+        <v>8.361444632188864e-08</v>
       </c>
       <c r="N49">
         <v>4.896478862997973e-05</v>
@@ -25272,7 +25272,7 @@
         <v>166</v>
       </c>
       <c r="M50">
-        <v>5.027226787395431e-08</v>
+        <v>1.331783613426897e-07</v>
       </c>
       <c r="N50">
         <v>0.0001212556072867757</v>
@@ -25769,7 +25769,7 @@
         <v>166</v>
       </c>
       <c r="M51">
-        <v>8.469929461820982e-08</v>
+        <v>2.064885522713783e-07</v>
       </c>
       <c r="N51">
         <v>0.0002956742989575544</v>
@@ -26266,7 +26266,7 @@
         <v>166</v>
       </c>
       <c r="M52">
-        <v>1.613336551595845e-07</v>
+        <v>2.917579372636594e-07</v>
       </c>
       <c r="N52">
         <v>0.000687476232027557</v>
@@ -26763,7 +26763,7 @@
         <v>166</v>
       </c>
       <c r="M53">
-        <v>2.372728690313249e-08</v>
+        <v>5.263561331904854e-08</v>
       </c>
       <c r="N53">
         <v>1.776943009902755e-05</v>
@@ -27260,7 +27260,7 @@
         <v>166</v>
       </c>
       <c r="M54">
-        <v>3.936503856063507e-08</v>
+        <v>8.75818514381402e-08</v>
       </c>
       <c r="N54">
         <v>4.427124682065304e-05</v>
@@ -27757,7 +27757,7 @@
         <v>166</v>
       </c>
       <c r="M55">
-        <v>6.525172330882031e-08</v>
+        <v>1.433514120669887e-07</v>
       </c>
       <c r="N55">
         <v>0.0001099829359922512</v>
@@ -28254,7 +28254,7 @@
         <v>166</v>
       </c>
       <c r="M56">
-        <v>1.097876999379225e-07</v>
+        <v>2.281752117352437e-07</v>
       </c>
       <c r="N56">
         <v>0.0002706899761693824</v>
@@ -28751,7 +28751,7 @@
         <v>166</v>
       </c>
       <c r="M57">
-        <v>1.955015321502584e-07</v>
+        <v>3.382933659420942e-07</v>
       </c>
       <c r="N57">
         <v>0.0006480780980059921</v>
@@ -29248,7 +29248,7 @@
         <v>166</v>
       </c>
       <c r="M58">
-        <v>5.416410267904977e-07</v>
+        <v>3.847753889081141e-07</v>
       </c>
       <c r="N58">
         <v>0.001417934380403747</v>
